--- a/biology/Médecine/Filets_biologiques/Filets_biologiques.xlsx
+++ b/biology/Médecine/Filets_biologiques/Filets_biologiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les filets biologiques sont des prothèses d'origine biologique utilisées en chirurgie de la paroi abdominale, et notamment en chirurgie de la hernie inguinale. Ils viennent du besoin d'un biomatériau qui ne souffre pas des problèmes associés aux filets permanents synthétiques, incluant inflammation chronique, réaction de corps étranger, raideur et fibrose, et infection du filet[1],[2],[3]. Cependant, les données sur les filets biologiques viennent le plus souvent d'études animales ou de petites séries sur les humains[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les filets biologiques sont des prothèses d'origine biologique utilisées en chirurgie de la paroi abdominale, et notamment en chirurgie de la hernie inguinale. Ils viennent du besoin d'un biomatériau qui ne souffre pas des problèmes associés aux filets permanents synthétiques, incluant inflammation chronique, réaction de corps étranger, raideur et fibrose, et infection du filet. Cependant, les données sur les filets biologiques viennent le plus souvent d'études animales ou de petites séries sur les humains.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'avantage théorique du filet biologique sur le filet synthétique a attiré des chirurgiens. Durant la dernière décennie, les chirurgiens ont utilisé les filets biologiques dans une variété de cas, des hernies inguinales et ventrales primaires dans des domaines non-infectés, des hernies récurrentes, et dans l'application la plus largement répandue, la hernie dans le domaine contaminé ou potentiellement contaminé, comme dans le cas d'une hernie inguinale étranglée[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'avantage théorique du filet biologique sur le filet synthétique a attiré des chirurgiens. Durant la dernière décennie, les chirurgiens ont utilisé les filets biologiques dans une variété de cas, des hernies inguinales et ventrales primaires dans des domaines non-infectés, des hernies récurrentes, et dans l'application la plus largement répandue, la hernie dans le domaine contaminé ou potentiellement contaminé, comme dans le cas d'une hernie inguinale étranglée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Domaine contaminé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La présence d'une infection peut empêcher l'utilisation de filets permanents synthétiques dans certaines hernies. Le filet biologique est alors une alternative. Les données restent limitées aux modèles animaux et aux petites séries[5],[6]. Cependant, l'absence d'alternatives a rendu le filet biologique attractif pour cette situation.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La présence d'une infection peut empêcher l'utilisation de filets permanents synthétiques dans certaines hernies. Le filet biologique est alors une alternative. Les données restent limitées aux modèles animaux et aux petites séries,. Cependant, l'absence d'alternatives a rendu le filet biologique attractif pour cette situation.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les filets biologiques représentent une avancée majeure en chirurgie de la hernie. Des recherches complémentaires sont cependant nécessaires, la FDA ayant signalé des complications[7],[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les filets biologiques représentent une avancée majeure en chirurgie de la hernie. Des recherches complémentaires sont cependant nécessaires, la FDA ayant signalé des complications,.
 </t>
         </is>
       </c>
